--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value864.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value864.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135457545580151</v>
+        <v>0.7554823756217957</v>
       </c>
       <c r="B1">
-        <v>2.603718534462303</v>
+        <v>3.281688928604126</v>
       </c>
       <c r="C1">
-        <v>4.354901041000915</v>
+        <v>2.95831298828125</v>
       </c>
       <c r="D1">
-        <v>2.503230043827624</v>
+        <v>2.357467412948608</v>
       </c>
       <c r="E1">
-        <v>1.176364659898905</v>
+        <v>1.477815866470337</v>
       </c>
     </row>
   </sheetData>
